--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1355.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1355.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163261600228386</v>
+        <v>1.230798482894897</v>
       </c>
       <c r="B1">
-        <v>2.603479012665074</v>
+        <v>2.52327823638916</v>
       </c>
       <c r="C1">
-        <v>4.067158216716102</v>
+        <v>9.187633514404297</v>
       </c>
       <c r="D1">
-        <v>2.727115917498599</v>
+        <v>2.043156385421753</v>
       </c>
       <c r="E1">
-        <v>1.159938819006628</v>
+        <v>1.1752769947052</v>
       </c>
     </row>
   </sheetData>
